--- a/gameconf/rpg/character.xlsx
+++ b/gameconf/rpg/character.xlsx
@@ -54,7 +54,7 @@
     <t>int64</t>
   </si>
   <si>
-    <t>[]int32</t>
+    <t>[]uint32</t>
   </si>
   <si>
     <t>唯一ID</t>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/gameconf/rpg/character.xlsx
+++ b/gameconf/rpg/character.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -39,12 +39,21 @@
     <t>Health</t>
   </si>
   <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
     <t>Mana</t>
   </si>
   <si>
+    <t>MaxMana</t>
+  </si>
+  <si>
     <t>SkillIDs</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -66,13 +75,25 @@
     <t>生命</t>
   </si>
   <si>
+    <t>生命上限</t>
+  </si>
+  <si>
     <t>魔力</t>
   </si>
   <si>
+    <t>魔力上限</t>
+  </si>
+  <si>
     <t>技能列表</t>
   </si>
   <si>
+    <t>角色状态</t>
+  </si>
+  <si>
     <t>战士</t>
+  </si>
+  <si>
+    <t>状态-存活</t>
   </si>
   <si>
     <t>@config:character_cfg|角色表:Character|map:ID</t>
@@ -1039,27 +1060,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="33.375" customWidth="1"/>
-    <col min="7" max="7" width="31.125" customWidth="1"/>
-    <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="4" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="33.375" customWidth="1"/>
+    <col min="9" max="9" width="31.125" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,47 +1096,74 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>1000</v>
@@ -1124,7 +1172,16 @@
         <v>1000</v>
       </c>
       <c r="E4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="2">
         <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1207,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
